--- a/biology/Zoologie/Agrobate_du_Kalahari/Agrobate_du_Kalahari.xlsx
+++ b/biology/Zoologie/Agrobate_du_Kalahari/Agrobate_du_Kalahari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agrobate du Kalahari (Cercotrichas paena synonyme : Erythropygia paena) désigne une espèce de petits passereaux de la famille des Muscicapidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans le sud de l'Angola, le Botswana, la Namibie, le nord de l'Afrique du Sud et le Zimbabwe,
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est le sandveld avec des arbres et des buissons bas, en lisière de forêt et dans la savane. Il peut vivre aussi dans les champs et jardins abandonnés.        
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Erythropygia, dans le genre Cercotrichas.
 </t>
